--- a/data/rna-dna/extractions.xlsx
+++ b/data/rna-dna/extractions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/rna-dna/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8D3B91-040D-A84E-B997-64968DD02410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0110F63-16E2-8141-9171-CC2BEB4EE3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="35">
   <si>
     <t>Sample ID Number</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>Selected for seq?</t>
+  </si>
+  <si>
+    <t>TOTAL SAMPLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cost per sample (quote) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL COST </t>
+  </si>
+  <si>
+    <t>n=10 per stage per treatment</t>
   </si>
 </sst>
 </file>
@@ -494,8 +506,8 @@
   </sheetPr>
   <dimension ref="A1:AD998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -725,6 +737,12 @@
         <f t="shared" ref="Q4:Q16" si="0">P4*N4</f>
         <v>2100</v>
       </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" customHeight="1">
       <c r="A5" s="8">
@@ -779,6 +797,13 @@
         <f t="shared" si="0"/>
         <v>1130</v>
       </c>
+      <c r="T5">
+        <v>154</v>
+      </c>
+      <c r="V5">
+        <f>5*10*2</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1">
       <c r="A6" s="8">
@@ -887,6 +912,9 @@
         <f t="shared" si="0"/>
         <v>2540</v>
       </c>
+      <c r="T7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:30" ht="15.75" customHeight="1">
       <c r="A8" s="8">
@@ -941,6 +969,9 @@
         <f t="shared" si="0"/>
         <v>2850</v>
       </c>
+      <c r="T8">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:30" ht="15.75" customHeight="1">
       <c r="A9" s="8">
@@ -1103,6 +1134,9 @@
         <f t="shared" si="0"/>
         <v>2270</v>
       </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" spans="1:30" ht="15.75" customHeight="1">
       <c r="A12" s="8">
@@ -1156,6 +1190,14 @@
       <c r="Q12" s="4">
         <f t="shared" si="0"/>
         <v>950</v>
+      </c>
+      <c r="T12">
+        <f>T8*T5</f>
+        <v>23100</v>
+      </c>
+      <c r="V12">
+        <f>T8*V5</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.75" customHeight="1">
